--- a/KNX.xlsx
+++ b/KNX.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\lanzaa\Documents\GitHub\Flask_Sites\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80455E5-CF59-4874-8AA2-36D35870BFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="102">
   <si>
     <t>KNX VAV Key</t>
   </si>
@@ -154,9 +163,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>Blinds UP 521/13 1 Chan</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -281,62 +287,227 @@
   </si>
   <si>
     <t>3rd Party KNX/Gamma</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>KNX WSHP Value</t>
+  </si>
+  <si>
+    <t>KNX FCU Value</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Light RL 513/23 3 Chan</t>
+  </si>
+  <si>
+    <t>Blinds UP 520/13 1 Chan</t>
+  </si>
+  <si>
+    <t>Actuator GLB181.1E/KN</t>
+  </si>
+  <si>
+    <t>KNX FH Value</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>KNX CENFUNC Value</t>
+  </si>
+  <si>
+    <t>KNX LAB Value</t>
+  </si>
+  <si>
+    <t>KNX FPB VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -526,407 +697,1310 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.29"/>
+    <col min="1" max="1" width="33.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="2"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>80</v>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>